--- a/Result/Weight.xlsx
+++ b/Result/Weight.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skin-Disease-Detection-and-Segmentation-HAM100000\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3665A194-27AE-46EE-A627-D27D407FE7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9333BF39-622F-49A8-B5F2-EBDD251026AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A9" sqref="A9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
